--- a/Results/TCGA/TCGA.Variant_summary.xlsx
+++ b/Results/TCGA/TCGA.Variant_summary.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">TCGA-AB-2808-03A</t>
   </si>
   <si>
-    <t xml:space="preserve">TCGA-AB-2808-03D_Alq2</t>
+    <t xml:space="preserve">TCGA-AB-2808-03D</t>
   </si>
   <si>
     <t xml:space="preserve">Not DNA called</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">TCGA-AB-2863-03A</t>
   </si>
   <si>
-    <t xml:space="preserve">TCGA-AB-2863-03B_Alq1</t>
+    <t xml:space="preserve">TCGA-AB-2863-03B</t>
   </si>
   <si>
     <t xml:space="preserve">72</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">0.522</t>
   </si>
   <si>
-    <t xml:space="preserve">TCGA-AB-2863-03D_Alq2</t>
+    <t xml:space="preserve">TCGA-AB-2863-03D</t>
   </si>
   <si>
     <t xml:space="preserve">TCGA-AB-2867</t>

--- a/Results/TCGA/TCGA.Variant_summary.xlsx
+++ b/Results/TCGA/TCGA.Variant_summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="204">
   <si>
     <t xml:space="preserve">MutationKey_Hg38</t>
   </si>
@@ -736,7 +736,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1153,6 +1153,45 @@
       <c r="F7" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="T7" s="1" t="s">
         <v>67</v>
       </c>
